--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO LIST" sheetId="2" r:id="rId1"/>
+    <sheet name="NOTES" sheetId="3" r:id="rId2"/>
+    <sheet name="PLAN" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -39,14 +41,115 @@
   </si>
   <si>
     <t>yes cause it will follow the user desire</t>
+  </si>
+  <si>
+    <t>the sounds for compositions are not so interesting, maybe the bad sounds keep people away</t>
+  </si>
+  <si>
+    <t>DRAWING CONTROLS LIKE CHILD DRAWINGS, NOTHING TOO NORMAL AND MODERN</t>
+  </si>
+  <si>
+    <t>MUST PASS CONTROL OF THE CLEF, KEY AND TIME TO THE MEASURE</t>
+  </si>
+  <si>
+    <t>SIMPLIFY OBJECTS SUCH KEY.FIFHTS TO JUST KEY (NOT EVENT KEEP AS OBJECTS, BUT VARIABLES)</t>
+  </si>
+  <si>
+    <t>//MUST IDEALIZE HOW THE INTERFACE WILL LOOK LIKE, HOW CONTENT WILL BE SPREAD</t>
+  </si>
+  <si>
+    <t>//WHERE MOBILE FIRST FITS ON IT, IF ONLY NEWS OR INTERATIVE CONTENT TOO</t>
+  </si>
+  <si>
+    <t>//CHORO IS COMING BACK, FOCUS ON IT</t>
+  </si>
+  <si>
+    <t>//MUST REDRAW ALL SYMBOLS THAT HAVE "FAKE WHITE SPACES" DUE TO THESE ARE MISS PLACING THE SCORE</t>
+  </si>
+  <si>
+    <t>//MUST GENERALIZE THE CLEFS AND LINES THEY ARE</t>
+  </si>
+  <si>
+    <t>done?</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SITUATION</t>
+  </si>
+  <si>
+    <t>//CHECK WHETHER IS NEEDED TO IMPLEMENT CHORD SECTIONS AS MUSIC XML, NOTES ON THE MEASURE, WITH THE X COORD SPECIFIED</t>
+  </si>
+  <si>
+    <t>//MUST ADD SCORE METADATA(COMPOSERS, MUSICIANS) AT THE TOP</t>
+  </si>
+  <si>
+    <t>//MUST DETERMINE METAS AND PRIMARY OBJECTIVES</t>
+  </si>
+  <si>
+    <t>//CHECK MUSIC XML WEAKNESS</t>
+  </si>
+  <si>
+    <t>//USE GOOGLE COMPRESSION ALGORITHM TO STORE STUFF</t>
+  </si>
+  <si>
+    <t>//ADOPT ALL POSIBLE NAMES FROM MUSIC XML</t>
+  </si>
+  <si>
+    <t>//USE D3 SVG FOR THE GRAPHIC STUFF</t>
+  </si>
+  <si>
+    <t>//MUST CREATE A FALL BACK FOR THE THROWS TO INSTEAD A CRASH, POPUP A MESSAGE OF ERROR AND TRY AGAIN</t>
+  </si>
+  <si>
+    <t>//MUST CREATE SYSTEM TO AVOID BUG WHEN TOO MUCH REDUCE THE SCREEN</t>
+  </si>
+  <si>
+    <t>//TRY TO IMPROVE THE WAY SCREEN WILL BE RESIZE TO SAVE PROCESSING (MAYBE USE A DELAY WHILE RESIZING)</t>
+  </si>
+  <si>
+    <t>//MUST ENHANCE THE MEASURE ORGANIZER AND SCORE LINE ORGANIZER</t>
+  </si>
+  <si>
+    <t>//IN A WAY THAT THE LINES GET AWAYS SMOOTH (NOT MOVING STUFF TO DECIMAL COORDINATES)</t>
+  </si>
+  <si>
+    <t>//IMPLEMENT MODE FOR CHORD IT SELF DRAW SYMBOLS AND ITS ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>//CAUSE SOME ADJUSTS ARE DEPENDENTS TO OTHER NOTES</t>
+  </si>
+  <si>
+    <t>//CREATE METHOD TO HANDLE TO SCORES FOR G AND F CLEFS,</t>
+  </si>
+  <si>
+    <t>//CREATE SYSTEM TO ADD THE NOTE FINISH, DOTS, LIGATURES</t>
+  </si>
+  <si>
+    <t>//ADD MEASURES TYPES OF BARS</t>
+  </si>
+  <si>
+    <t>//ADD TABLATURE SYSTEM</t>
+  </si>
+  <si>
+    <t>//ADD POINTS AND LINKS TO NOTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,8 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,10 +463,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="117.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -115,25 +115,85 @@
     <t>//IN A WAY THAT THE LINES GET AWAYS SMOOTH (NOT MOVING STUFF TO DECIMAL COORDINATES)</t>
   </si>
   <si>
-    <t>//IMPLEMENT MODE FOR CHORD IT SELF DRAW SYMBOLS AND ITS ATTRIBUTES</t>
-  </si>
-  <si>
-    <t>//CAUSE SOME ADJUSTS ARE DEPENDENTS TO OTHER NOTES</t>
-  </si>
-  <si>
     <t>//CREATE METHOD TO HANDLE TO SCORES FOR G AND F CLEFS,</t>
   </si>
   <si>
     <t>//CREATE SYSTEM TO ADD THE NOTE FINISH, DOTS, LIGATURES</t>
   </si>
   <si>
-    <t>//ADD MEASURES TYPES OF BARS</t>
-  </si>
-  <si>
     <t>//ADD TABLATURE SYSTEM</t>
   </si>
   <si>
     <t>//ADD POINTS AND LINKS TO NOTES</t>
+  </si>
+  <si>
+    <t>//System that will check measure elements order to implement them, such in case middle changes of clef or time sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//IN THE FUTURE WILL GENERALIZE METHOD TO ADD CHORDS, TO A METHOD TO ADD MEASURE, TO ENSURE POSITIONING OF </t>
+  </si>
+  <si>
+    <t>//CLEF, TIME AND KEY SIG CHANGES</t>
+  </si>
+  <si>
+    <t>//MUST SET SYSTEM TO ONLY USE MEASURE GROUP IN CASE MORE THAN ONE MEASURE IS PRESENT</t>
+  </si>
+  <si>
+    <t>//MAYBE CREATE MEASURE PRE DEFINED SPOTS TO PLACE NOTES AND RESTS</t>
+  </si>
+  <si>
+    <t>//BARS MUST BE ADDED OUTSIDE THE MEASURE</t>
+  </si>
+  <si>
+    <t>//MAYBE ADD SYSTEM TO ADJUSTE MEASURE SIZES TO PERCENTAGE INSTEAD KEEP IT AUTO SIZING ALL THE TIME</t>
+  </si>
+  <si>
+    <t>//PRE ALLOCATE SPACE FOR ACCIDENTS AND DESLOCATE NOTES TO SAVE PROCESSING</t>
+  </si>
+  <si>
+    <t>//ACCIDENT DONT HAVE TO BE EQUAL SPACED ON THE MEASURE, MAYBE ONLY A MINIMAL SPACE IS ENOUGH</t>
+  </si>
+  <si>
+    <t>//AUX LINES DONT HAVE TO BE DESLOCATED</t>
+  </si>
+  <si>
+    <t>"------measure group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //LATER WILL OPTIMIZE EVERYTHING WITH MODIFICATION VERIFICATIONS AND FLAGS, FOR NOW, PUT IT TO WORK</t>
+  </si>
+  <si>
+    <t>"------ score group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //Creates a new score line passing the line length and the minimum measure length to be kept in a line, otherwise it will overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //KEEP WRITING THIS SCORE GROUP CLASS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //IT WILL ALLOCATE MEASURES TO THE LINES AN ORGANIZE AND SYNC LINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //TIME SIGS WILL BE CHOOSED BASED ON THE FIRST SCORE PART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //BARS WILL BE BASED ON THE FIRST SCORE PART, ONLY IN CASE OF REPEAT THAT HAS CIRCLES WILL BE USED THE MEASURE GROUP TO CREATE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //THE OTHER BARS WILL BE PUTTED AT THE MEASURE GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //MUST GENERATE THE MEASURES GROUPS (PROBABLY ADD TO THEM WHEN THE SCORE PART IS JUST ADDED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //BE WARNED TO WHEN A MIDDLE MEASURE IS INSERTED AT THE SCORE PART (PARTMODIFIED FLAG IS NEEDED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //SCORE PART MUST ORGANIZE THE MEASURES POSITIONS</t>
+  </si>
+  <si>
+    <t>//PROBALY THERE IS A WAY MUCH MORE SIMPLER TO ORGANIZE MEASURES TIMING</t>
   </si>
 </sst>
 </file>
@@ -463,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,39 +641,139 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>//PROBALY THERE IS A WAY MUCH MORE SIMPLER TO ORGANIZE MEASURES TIMING</t>
+  </si>
+  <si>
+    <t>MUST IMPROVE THE GENERATIONS OF BAR DRAWINGS AVOIDING UNECESSARY CALCULATIONS (IN CASE OF DOTS FOR REPEAT BARS)</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,6 +777,11 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -197,13 +197,19 @@
   </si>
   <si>
     <t>MUST IMPROVE THE GENERATIONS OF BAR DRAWINGS AVOIDING UNECESSARY CALCULATIONS (IN CASE OF DOTS FOR REPEAT BARS)</t>
+  </si>
+  <si>
+    <t>WE SHOULD NEVER APPEND TO VISUAL OBJECTS TEMPORARY ARRAYS AND OBJECTS CAUSE IF VISUAL OBJECTS ARE APPENDED, THE REFERENCES THEY HOLD WILL NEVER BE DESTROYED</t>
+  </si>
+  <si>
+    <t>MUST DO A GENERAL CHECKUP LATER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +225,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,12 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="117.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="156.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -782,6 +802,16 @@
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>MUST DO A GENERAL CHECKUP LATER</t>
+  </si>
+  <si>
+    <t>ADD SYSTEM FOR DINAMIC MIN SIZE of measures</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,6 +815,11 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>ADD SYSTEM FOR DINAMIC MIN SIZE of measures</t>
+  </si>
+  <si>
+    <t>AUDIO STUFF WILL BE THE LAST THING</t>
+  </si>
+  <si>
+    <t>AND THEM EDITOR</t>
+  </si>
+  <si>
+    <t>TABS AND DRUMS STUFF</t>
+  </si>
+  <si>
+    <t>FULL AND COMPLETE SCORE RENDERER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ///create notes, chords, measures and score class to manage all the score features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ///lets begin with the note element placing at a chord</t>
   </si>
 </sst>
 </file>
@@ -549,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +840,42 @@
         <v>59</v>
       </c>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -833,7 +887,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -280,13 +280,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +848,7 @@
       <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>63</v>
       </c>
     </row>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t xml:space="preserve">    ///lets begin with the note element placing at a chord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //ADD TAB SYSTEM AND WAY TO CHANGE CLEFS, TIME SIGS AND KEY SIGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //CHECK DIFERENCE FROM PIANOS HAND AND MULTIPLE INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>//create system to add chords symbols to queues and them when all the measures of a line are positioned, we put all chords aligned on the top of them</t>
+  </si>
+  <si>
+    <t>create system to only draw bars @ the end of the measure not in the beggining</t>
+  </si>
+  <si>
+    <t>create system to only render the score visual stuff, all the rules will be within a middle dynamic file that will pass instructions to the score render</t>
+  </si>
+  <si>
+    <t>all music xml openings will be made thru the site</t>
   </si>
 </sst>
 </file>
@@ -568,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,6 +893,36 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>all music xml openings will be made thru the site</t>
+  </si>
+  <si>
+    <t>CHECK WHY TEMPO HAS TO BE AT A MEASURE. HOW WE SIMBOLIZE ITS CHANGE DURING THE SONG</t>
+  </si>
+  <si>
+    <t>GOT TO DO SYSTEM WITH VOICES, TO PLACE TWO SCORE PARTS AT ONE</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,6 +929,16 @@
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>GOT TO DO SYSTEM WITH VOICES, TO PLACE TWO SCORE PARTS AT ONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //MUST CREATE FUNCTION TO CREATE AND DELETE TEMP STUFF at open mxl files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                //NOW LETS EXPLORE A LITTLE, TO FIND SOME BUGS, CHECKS A FEW NOTES IF THEY ARE ALREADY MADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                //THEN PLACE SLURS ETC CHECK DOTTED NOTES ON MUSIC XML</t>
+  </si>
+  <si>
+    <t>ensure all  "composer "poet lyricist artist tabber are in the header generator</t>
   </si>
 </sst>
 </file>
@@ -592,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,6 +951,36 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -260,6 +260,39 @@
   </si>
   <si>
     <t>ensure all  "composer "poet lyricist artist tabber are in the header generator</t>
+  </si>
+  <si>
+    <t>create chord groups inside the measures and them add chord to them</t>
+  </si>
+  <si>
+    <t>WE WILL USE THE MEASURE GROUP LAYOUT TO PLACE A CLEF, TIME AND KEY CHANGE SYSTEM</t>
+  </si>
+  <si>
+    <t>HOW WILL STORE CLEF CHANGES @ MEASURE GROUP, SINCE THEY DO NOT CHANGE FOR ALL? SAME FOR KEYS WHEN USING TABS</t>
+  </si>
+  <si>
+    <t>FOR TIME signature ITS OK CAUSE TABS FOLLOW THE SAME TIME SIGNATURES</t>
+  </si>
+  <si>
+    <t>SYSTEM THAT WILL GENERATE BARS ACCORDING TO MEASURE PROPERTIES</t>
+  </si>
+  <si>
+    <t>/*add repeat label bars and other measure stuff</t>
+  </si>
+  <si>
+    <t>add measure symbol that means repeat*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //translate the general group to a fit position when a amrgin stuff has been added (such titles or brackets) (CHECK WHY NOT WORKING: PROBABLY ARE BEING TRANSLATED IN THE INDEX PAGE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //WE MUST CHECK ATTRIBUTES CHANGES THAT CHANGES LINES BEFORE, SUCH CLEF, TIME AND KEY CHANGES, AND BARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //(CHECK HOW HANDLE BARS PRIORITY, CAUSE A PREVIOUS MEASURE SAYS A DOUBLE BAR AND THE NEXT, A REPEAT FORWARD BAR)</t>
+  </si>
+  <si>
+    <t>fix bar bug (files are on the desktop bug folder)</t>
   </si>
 </sst>
 </file>
@@ -604,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,6 +1014,61 @@
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/player_planning.xlsx
+++ b/player_planning.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>MUSIC XML IS NO THAT GOOD</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>create system for score groups, to join piano scores</t>
+  </si>
+  <si>
+    <t>must create good rule to creation of new lines (maybe use the min measure be always greater than a determined value</t>
+  </si>
+  <si>
+    <t>check how will implement system of voices (used in most virtual score editors)</t>
   </si>
 </sst>
 </file>
@@ -693,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,6 +1002,16 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
